--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -49,21 +49,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -73,69 +70,66 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -145,43 +139,49 @@
     <t>care</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>health</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>stock</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -545,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9565217391304348</v>
@@ -735,16 +735,16 @@
         <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3682170542635659</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.348993288590604</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>321</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
         <v>97</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>0.84375</v>
-      </c>
-      <c r="L7">
-        <v>108</v>
-      </c>
       <c r="M7">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3376623376623377</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,37 +964,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>203</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1984126984126984</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,69 +1032,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.795774647887324</v>
+      </c>
+      <c r="L11">
+        <v>113</v>
+      </c>
+      <c r="M11">
+        <v>113</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.7833333333333333</v>
-      </c>
-      <c r="L11">
-        <v>94</v>
-      </c>
-      <c r="M11">
-        <v>94</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1206434316353887</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>45</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>328</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7547169811320755</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7535211267605634</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L14">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7301587301587301</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.725</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6702127659574468</v>
+        <v>0.7125</v>
       </c>
       <c r="L18">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6511627906976745</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6057441253263708</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.58</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5794117647058824</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L24">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5457627118644067</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L25">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5280898876404494</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,15 +1446,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5230769230769231</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L27">
         <v>34</v>
@@ -1496,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4931506849315068</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4853556485355648</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L29">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4358974358974359</v>
+        <v>0.4375</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.40625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,41 +1576,41 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1923076923076923</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1172248803827751</v>
+        <v>0.1177884615384615</v>
       </c>
       <c r="L33">
         <v>49</v>
@@ -1652,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.09619686800894854</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L34">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1678,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>808</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.0889423076923077</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1704,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>379</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.06437291897891231</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1730,73 +1706,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>843</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.05420991926182238</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>820</v>
+        <v>843</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.05401234567901234</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.03932584269662921</v>
+        <v>0.03838951310861423</v>
       </c>
       <c r="L39">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N39">
         <v>0.92</v>
@@ -1808,59 +1784,85 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2052</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.02033570045190445</v>
+        <v>0.03464203233256351</v>
       </c>
       <c r="L40">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>3035</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41">
+        <v>0.02033570045190445</v>
+      </c>
+      <c r="L41">
+        <v>63</v>
+      </c>
+      <c r="M41">
+        <v>72</v>
+      </c>
+      <c r="N41">
+        <v>0.88</v>
+      </c>
+      <c r="O41">
+        <v>0.12</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K41">
-        <v>0.01066499372647428</v>
-      </c>
-      <c r="L41">
+      <c r="K42">
+        <v>0.0106516290726817</v>
+      </c>
+      <c r="L42">
         <v>34</v>
       </c>
-      <c r="M41">
-        <v>47</v>
-      </c>
-      <c r="N41">
-        <v>0.72</v>
-      </c>
-      <c r="O41">
-        <v>0.28</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3154</v>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0.79</v>
+      </c>
+      <c r="O42">
+        <v>0.21</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
